--- a/Test-case-shopee.xlsx
+++ b/Test-case-shopee.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bootcamp\Tugas_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00A099F-9645-4251-A0D8-E021C8F87823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D3FCBE-171B-46B9-9537-8F9392393D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{94832D2A-C28E-45FD-B6F1-C458DA59B3EB}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Scenario &amp; Report" sheetId="1" r:id="rId1"/>
     <sheet name="BDD Invalid Login" sheetId="2" r:id="rId2"/>
     <sheet name="Registrasi BDD" sheetId="3" r:id="rId3"/>
+    <sheet name="coba" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="122">
   <si>
     <t>ID</t>
   </si>
@@ -569,6 +570,9 @@
   </si>
   <si>
     <t>Tidak berhasil mendaftarkan akun menampilkan pesan error</t>
+  </si>
+  <si>
+    <t>coba</t>
   </si>
 </sst>
 </file>
@@ -799,6 +803,26 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -808,33 +832,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -846,16 +848,18 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1175,7 +1179,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,36 +1204,36 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="15"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1857,7 +1861,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>71</v>
@@ -1924,7 +1928,7 @@
       <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="31">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1933,7 +1937,7 @@
       <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="3" t="s">
         <v>46</v>
       </c>
@@ -1947,7 +1951,7 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="14" t="s">
         <v>49</v>
       </c>
@@ -1960,7 +1964,7 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="3" t="s">
         <v>50</v>
       </c>
@@ -1973,7 +1977,7 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="4" t="s">
         <v>51</v>
       </c>
@@ -1986,7 +1990,7 @@
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="31">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2001,31 +2005,31 @@
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="31" t="s">
         <v>54</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2033,31 +2037,31 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
+      <c r="A21" s="31">
         <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2065,31 +2069,31 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
+      <c r="A26" s="31">
         <v>5</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -2097,31 +2101,31 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
+      <c r="A31" s="31">
         <v>6</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -2129,31 +2133,31 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="14" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
+      <c r="A36" s="31">
         <v>7</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2161,31 +2165,31 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="20">
+      <c r="A41" s="31">
         <v>8</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -2193,31 +2197,31 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="20">
+      <c r="A46" s="31">
         <v>9</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -2225,31 +2229,31 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
+      <c r="A49" s="32"/>
       <c r="B49" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="20">
+      <c r="A51" s="31">
         <v>10</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -2257,31 +2261,31 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
+      <c r="A52" s="32"/>
       <c r="B52" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
+      <c r="A53" s="32"/>
       <c r="B53" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
+      <c r="A54" s="32"/>
       <c r="B54" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
+      <c r="A55" s="33"/>
       <c r="B55" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="20">
+      <c r="A56" s="31">
         <v>11</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -2289,31 +2293,31 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
+      <c r="A57" s="32"/>
       <c r="B57" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
+      <c r="A58" s="32"/>
       <c r="B58" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
+      <c r="A59" s="32"/>
       <c r="B59" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
+      <c r="A60" s="33"/>
       <c r="B60" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="20">
+      <c r="A61" s="31">
         <v>12</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -2321,31 +2325,31 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="21"/>
+      <c r="A62" s="32"/>
       <c r="B62" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
+      <c r="A63" s="32"/>
       <c r="B63" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="21"/>
+      <c r="A64" s="32"/>
       <c r="B64" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
+      <c r="A65" s="33"/>
       <c r="B65" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="23">
+      <c r="A66" s="26">
         <v>13</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -2353,31 +2357,31 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="24"/>
+      <c r="A67" s="27"/>
       <c r="B67" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="24"/>
+      <c r="A68" s="27"/>
       <c r="B68" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="24"/>
+      <c r="A69" s="27"/>
       <c r="B69" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="24"/>
+      <c r="A70" s="27"/>
       <c r="B70" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="23">
+      <c r="A71" s="26">
         <v>14</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -2385,25 +2389,25 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="24"/>
+      <c r="A72" s="27"/>
       <c r="B72" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="24"/>
+      <c r="A73" s="27"/>
       <c r="B73" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="24"/>
+      <c r="A74" s="27"/>
       <c r="B74" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="24"/>
+      <c r="A75" s="27"/>
       <c r="B75" s="4" t="s">
         <v>60</v>
       </c>
@@ -2412,31 +2416,31 @@
       <c r="A76" s="28">
         <v>15</v>
       </c>
-      <c r="B76" s="25" t="s">
+      <c r="B76" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="29"/>
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="29"/>
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="29"/>
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="30"/>
-      <c r="B80" s="27" t="s">
+      <c r="B80" s="17" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2496,13 +2500,13 @@
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="18"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="35">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2510,43 +2514,43 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="32" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="19" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="34" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2554,43 +2558,43 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="34" t="s">
+      <c r="A18" s="34"/>
+      <c r="B18" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="32" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="34" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2598,43 +2602,43 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="34" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="32" t="s">
+      <c r="A26" s="34"/>
+      <c r="B26" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="34" t="s">
         <v>94</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2642,43 +2646,43 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="34" t="s">
+      <c r="A32" s="34"/>
+      <c r="B32" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="32" t="s">
+      <c r="A33" s="34"/>
+      <c r="B33" s="19" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="35">
+      <c r="A34" s="34">
         <v>5</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2686,44 +2690,44 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C37" s="12"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="34" t="s">
+      <c r="A39" s="34"/>
+      <c r="B39" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="32" t="s">
+      <c r="A40" s="34"/>
+      <c r="B40" s="19" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="35">
+      <c r="A41" s="34">
         <v>6</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -2731,43 +2735,43 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="35"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
-      <c r="B46" s="34" t="s">
+      <c r="A46" s="34"/>
+      <c r="B46" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="32" t="s">
+      <c r="A47" s="34"/>
+      <c r="B47" s="19" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="35">
+      <c r="A48" s="34">
         <v>7</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -2775,43 +2779,43 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="35"/>
-      <c r="B53" s="34" t="s">
+      <c r="A53" s="34"/>
+      <c r="B53" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
-      <c r="B54" s="32" t="s">
+      <c r="A54" s="34"/>
+      <c r="B54" s="19" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="35">
+      <c r="A55" s="34">
         <v>8</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -2819,43 +2823,43 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
+      <c r="A56" s="34"/>
       <c r="B56" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="35"/>
+      <c r="A57" s="34"/>
       <c r="B57" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
-      <c r="B60" s="34" t="s">
+      <c r="A60" s="34"/>
+      <c r="B60" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
-      <c r="B61" s="32" t="s">
+      <c r="A61" s="34"/>
+      <c r="B61" s="19" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="35">
+      <c r="A62" s="34">
         <v>9</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -2863,43 +2867,43 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
+      <c r="A63" s="34"/>
       <c r="B63" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
+      <c r="A64" s="34"/>
       <c r="B64" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
+      <c r="A65" s="34"/>
       <c r="B65" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
+      <c r="A66" s="34"/>
       <c r="B66" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
-      <c r="B67" s="34" t="s">
+      <c r="A67" s="34"/>
+      <c r="B67" s="20" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
-      <c r="B68" s="32" t="s">
+      <c r="A68" s="34"/>
+      <c r="B68" s="19" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="35">
+      <c r="A69" s="34">
         <v>10</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -2907,43 +2911,46 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
+      <c r="A70" s="34"/>
       <c r="B70" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
+      <c r="A71" s="34"/>
       <c r="B71" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
+      <c r="A72" s="34"/>
       <c r="B72" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="35"/>
+      <c r="A73" s="34"/>
       <c r="B73" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="35"/>
-      <c r="B74" s="34" t="s">
+      <c r="A74" s="34"/>
+      <c r="B74" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="35"/>
-      <c r="B75" s="32" t="s">
+      <c r="A75" s="34"/>
+      <c r="B75" s="19" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A20:A26"/>
     <mergeCell ref="A69:A75"/>
     <mergeCell ref="A27:A33"/>
     <mergeCell ref="A34:A40"/>
@@ -2951,10 +2958,27 @@
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="A55:A61"/>
     <mergeCell ref="A62:A68"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="A20:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4099041-E7AA-4BFE-9D89-C778DBA52B3F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test-case-shopee.xlsx
+++ b/Test-case-shopee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bootcamp\Tugas_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D3FCBE-171B-46B9-9537-8F9392393D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80FE1DB-50F2-40EA-AEDA-85206EE89A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{94832D2A-C28E-45FD-B6F1-C458DA59B3EB}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Scenario &amp; Report" sheetId="1" r:id="rId1"/>
     <sheet name="BDD Invalid Login" sheetId="2" r:id="rId2"/>
     <sheet name="Registrasi BDD" sheetId="3" r:id="rId3"/>
-    <sheet name="coba" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="121">
   <si>
     <t>ID</t>
   </si>
@@ -570,9 +569,6 @@
   </si>
   <si>
     <t>Tidak berhasil mendaftarkan akun menampilkan pesan error</t>
-  </si>
-  <si>
-    <t>coba</t>
   </si>
 </sst>
 </file>
@@ -856,10 +852,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1179,7 +1175,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1861,7 +1857,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>71</v>
@@ -2506,7 +2502,7 @@
       <c r="B5" s="18"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
+      <c r="A6" s="34">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2514,43 +2510,43 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="19" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2558,43 +2554,43 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="35" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2602,43 +2598,43 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="35" t="s">
         <v>94</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2646,43 +2642,43 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="19" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="34">
+      <c r="A34" s="35">
         <v>5</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2690,44 +2686,44 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C37" s="12"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
+      <c r="A38" s="35"/>
       <c r="B38" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="19" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="34">
+      <c r="A41" s="35">
         <v>6</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -2735,43 +2731,43 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
+      <c r="A44" s="35"/>
       <c r="B44" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
+      <c r="A45" s="35"/>
       <c r="B45" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
+      <c r="A46" s="35"/>
       <c r="B46" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
+      <c r="A47" s="35"/>
       <c r="B47" s="19" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="34">
+      <c r="A48" s="35">
         <v>7</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -2779,43 +2775,43 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
+      <c r="A49" s="35"/>
       <c r="B49" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
+      <c r="A50" s="35"/>
       <c r="B50" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
+      <c r="A51" s="35"/>
       <c r="B51" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
+      <c r="A52" s="35"/>
       <c r="B52" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
+      <c r="A53" s="35"/>
       <c r="B53" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
+      <c r="A54" s="35"/>
       <c r="B54" s="19" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="34">
+      <c r="A55" s="35">
         <v>8</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -2823,43 +2819,43 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
+      <c r="A56" s="35"/>
       <c r="B56" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
+      <c r="A57" s="35"/>
       <c r="B57" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
+      <c r="A58" s="35"/>
       <c r="B58" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
+      <c r="A59" s="35"/>
       <c r="B59" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
+      <c r="A60" s="35"/>
       <c r="B60" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="34"/>
+      <c r="A61" s="35"/>
       <c r="B61" s="19" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="34">
+      <c r="A62" s="35">
         <v>9</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -2867,43 +2863,43 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
+      <c r="A63" s="35"/>
       <c r="B63" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
+      <c r="A64" s="35"/>
       <c r="B64" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
+      <c r="A65" s="35"/>
       <c r="B65" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="34"/>
+      <c r="A66" s="35"/>
       <c r="B66" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="34"/>
+      <c r="A67" s="35"/>
       <c r="B67" s="20" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="34"/>
+      <c r="A68" s="35"/>
       <c r="B68" s="19" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="34">
+      <c r="A69" s="35">
         <v>10</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -2911,37 +2907,37 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="34"/>
+      <c r="A70" s="35"/>
       <c r="B70" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="34"/>
+      <c r="A71" s="35"/>
       <c r="B71" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="34"/>
+      <c r="A72" s="35"/>
       <c r="B72" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="34"/>
+      <c r="A73" s="35"/>
       <c r="B73" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="34"/>
+      <c r="A74" s="35"/>
       <c r="B74" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="34"/>
+      <c r="A75" s="35"/>
       <c r="B75" s="19" t="s">
         <v>114</v>
       </c>
@@ -2961,24 +2957,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4099041-E7AA-4BFE-9D89-C778DBA52B3F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Test-case-shopee.xlsx
+++ b/Test-case-shopee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bootcamp\Tugas_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80FE1DB-50F2-40EA-AEDA-85206EE89A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD5C01A-372D-4BCB-BCF0-8C8C9D110F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{94832D2A-C28E-45FD-B6F1-C458DA59B3EB}"/>
   </bookViews>
@@ -1175,7 +1175,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
